--- a/Examples/AHP_Car_Selection/carModel_Excel_filledin.xlsx
+++ b/Examples/AHP_Car_Selection/carModel_Excel_filledin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCODE\cdfAHPANPLib\Examples\Tutorials\AHP Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/AHP_Car_Selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34CB0F7-5FD1-4D72-9C7D-10816B0E4A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA664F-4739-D24C-BB11-2173798E39CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1515" windowWidth="26790" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="3060" windowWidth="26800" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pairwise_comp" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>GoalNode</t>
   </si>
   <si>
-    <t>Enter judgments for the paiwise comparisons in the matrix or direct values in the green cells</t>
-  </si>
-  <si>
     <t>2Criteria</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>3Honda Civic</t>
+  </si>
+  <si>
+    <t>Enter pairwise comparisons in the white cells of the table or numerical data in the green cells. For the Direct Values column, if the smallest value is best, invert the value before entering it (e.g., $10 as =1/10) .</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -241,7 +241,7 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -583,54 +583,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="21" width="15.7109375" customWidth="1"/>
+    <col min="1" max="21" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -654,9 +654,9 @@
         <v>9.0908007827582696E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10">
         <f>1/C4</f>
@@ -681,9 +681,9 @@
         <v>0.41454058202027044</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10">
         <f>1/D4</f>
@@ -709,9 +709,9 @@
         <v>0.20363264649454607</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10">
         <f>1/E4</f>
@@ -738,9 +738,9 @@
         <v>0.29091876365760078</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="12">
         <f>SUM(B4:B7)</f>
@@ -763,51 +763,51 @@
         <v>22.916936030006017</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="12">
         <f>((MMULT(B8:E8,H4:H7)-4)/(4-1))/0.89</f>
         <v>0.11418849354492207</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -828,9 +828,9 @@
         <v>0.66242038216560506</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10">
         <f>1/C13</f>
@@ -852,9 +852,9 @@
         <v>7.0063694267515922E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10">
         <f>1/D13</f>
@@ -877,9 +877,9 @@
         <v>0.26751592356687898</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="12">
         <f>SUM(B13:B15)</f>
@@ -898,51 +898,51 @@
         <v>19.625</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="12">
         <f>((MMULT(B16:D16,G13:G15)-3)/(3-1))/0.52</f>
         <v>0.21741793238608551</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -962,9 +962,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="10" t="e">
         <f>1/C21</f>
@@ -987,9 +987,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="10" t="e">
         <f>1/D21</f>
@@ -1015,9 +1015,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="12" t="e">
         <f>SUM(B21:B23)</f>
@@ -1036,51 +1036,51 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F25" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="12" t="e">
         <f>((MMULT(B24:D24,G21:G23)-3)/(3-1))/0.52</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -1101,9 +1101,9 @@
         <v>0.18182182658312612</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="10">
         <f>1/C29</f>
@@ -1125,9 +1125,9 @@
         <v>0.27272142142545974</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="10">
         <f>1/D29</f>
@@ -1150,9 +1150,9 @@
         <v>0.54545675199141419</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="12">
         <f>SUM(B29:B31)</f>
@@ -1171,51 +1171,51 @@
         <v>10.999961001669757</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F33" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="12">
         <f>((MMULT(B32:D32,G29:G31)-3)/(3-1))/0.52</f>
         <v>-1.485644044964583E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="G36" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
@@ -1236,9 +1236,9 @@
         <v>0.67696440564137006</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="10">
         <f>1/C37</f>
@@ -1260,9 +1260,9 @@
         <v>0.23975822699798524</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="10">
         <f>1/D37</f>
@@ -1285,9 +1285,9 @@
         <v>8.3277367360644741E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="12">
         <f>SUM(B37:B39)</f>
@@ -1306,9 +1306,9 @@
         <v>17.726190476190474</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F41" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="12">
         <f>((MMULT(B40:D40,G37:G39)-3)/(3-1))/0.52</f>
